--- a/Code/Results/Cases/Case_0_207/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_207/res_line/pl_mw.xlsx
@@ -424,25 +424,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.05490777311227646</v>
+        <v>0.1318163244422621</v>
       </c>
       <c r="D2">
-        <v>0.1033205587340262</v>
+        <v>0.07493699281137367</v>
       </c>
       <c r="E2">
-        <v>0.1099223801603131</v>
+        <v>0.1184991365950125</v>
       </c>
       <c r="F2">
-        <v>3.952778987996169</v>
+        <v>2.147396506875879</v>
       </c>
       <c r="G2">
-        <v>4.56124382249061</v>
+        <v>2.220330774798867</v>
       </c>
       <c r="H2">
-        <v>2.261519837534593</v>
+        <v>1.617759182396128</v>
       </c>
       <c r="I2">
-        <v>3.329309295653232</v>
+        <v>1.971795632941053</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2422674968964458</v>
+        <v>0.1863415131912944</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -471,25 +471,25 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.05240258082299931</v>
+        <v>0.1321083045426334</v>
       </c>
       <c r="D3">
-        <v>0.08958475501577823</v>
+        <v>0.07256598175472107</v>
       </c>
       <c r="E3">
-        <v>0.09744191520185908</v>
+        <v>0.1166775667029931</v>
       </c>
       <c r="F3">
-        <v>3.408692100088984</v>
+        <v>2.036816699322713</v>
       </c>
       <c r="G3">
-        <v>3.921724616311565</v>
+        <v>2.086944517262111</v>
       </c>
       <c r="H3">
-        <v>1.966992608946811</v>
+        <v>1.563157948876182</v>
       </c>
       <c r="I3">
-        <v>2.877654224825875</v>
+        <v>1.882514759531929</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2111742910483372</v>
+        <v>0.1808578132487639</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -518,25 +518,25 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.05097499970177921</v>
+        <v>0.1323379769750872</v>
       </c>
       <c r="D4">
-        <v>0.08151668983995108</v>
+        <v>0.07116475536849265</v>
       </c>
       <c r="E4">
-        <v>0.09009990364465637</v>
+        <v>0.1156327084658031</v>
       </c>
       <c r="F4">
-        <v>3.086050247460918</v>
+        <v>1.970476765595834</v>
       </c>
       <c r="G4">
-        <v>3.542320519219572</v>
+        <v>2.006664097394179</v>
       </c>
       <c r="H4">
-        <v>1.792803458186597</v>
+        <v>1.530759656186433</v>
       </c>
       <c r="I4">
-        <v>2.610077947351002</v>
+        <v>1.829116384459297</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.192819022122265</v>
+        <v>0.1776210568560472</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -565,25 +565,25 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.05041843973301496</v>
+        <v>0.132444234507247</v>
       </c>
       <c r="D5">
-        <v>0.07830675826146916</v>
+        <v>0.070607290533232</v>
       </c>
       <c r="E5">
-        <v>0.08717774526260058</v>
+        <v>0.1152252965986591</v>
       </c>
       <c r="F5">
-        <v>2.957006081444263</v>
+        <v>1.943828266499054</v>
       </c>
       <c r="G5">
-        <v>3.390526899446741</v>
+        <v>1.974349319995611</v>
       </c>
       <c r="H5">
-        <v>1.723246859370818</v>
+        <v>1.517837414266324</v>
       </c>
       <c r="I5">
-        <v>2.503117875908003</v>
+        <v>1.80770843727403</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1854972620184157</v>
+        <v>0.1763344579139741</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -612,25 +612,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.05032747453020647</v>
+        <v>0.132462643152337</v>
       </c>
       <c r="D6">
-        <v>0.07777807995987729</v>
+        <v>0.0705155369100865</v>
       </c>
       <c r="E6">
-        <v>0.08669644403982701</v>
+        <v>0.1151587523329667</v>
       </c>
       <c r="F6">
-        <v>2.9357137230418</v>
+        <v>1.939426421979931</v>
       </c>
       <c r="G6">
-        <v>3.365477940723366</v>
+        <v>1.969007440302192</v>
       </c>
       <c r="H6">
-        <v>1.711776651386174</v>
+        <v>1.515708527668664</v>
       </c>
       <c r="I6">
-        <v>2.485472932959723</v>
+        <v>1.804174803194343</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.184290322124717</v>
+        <v>0.1761227662898364</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.05096739496259062</v>
+        <v>0.1323393587342423</v>
       </c>
       <c r="D7">
-        <v>0.08147310147498388</v>
+        <v>0.07115718258769022</v>
       </c>
       <c r="E7">
-        <v>0.0900602253220022</v>
+        <v>0.1156271397299307</v>
       </c>
       <c r="F7">
-        <v>3.084300591456099</v>
+        <v>1.970115821120544</v>
       </c>
       <c r="G7">
-        <v>3.540262608120656</v>
+        <v>2.006226678036938</v>
       </c>
       <c r="H7">
-        <v>1.791859917126743</v>
+        <v>1.530584251319368</v>
       </c>
       <c r="I7">
-        <v>2.608627480389586</v>
+        <v>1.828826249198599</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1927196708991019</v>
+        <v>0.1776035745793649</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.05401932974832846</v>
+        <v>0.131906534216931</v>
       </c>
       <c r="D8">
-        <v>0.09849937099588146</v>
+        <v>0.07410802949189588</v>
       </c>
       <c r="E8">
-        <v>0.1055453979119392</v>
+        <v>0.1178557056106584</v>
       </c>
       <c r="F8">
-        <v>3.762521690147253</v>
+        <v>2.108941954639846</v>
       </c>
       <c r="G8">
-        <v>4.337649442862073</v>
+        <v>2.173998797861998</v>
       </c>
       <c r="H8">
-        <v>2.158427329991412</v>
+        <v>1.598696853389157</v>
       </c>
       <c r="I8">
-        <v>3.171317303303667</v>
+        <v>1.940713794850737</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2313763612197164</v>
+        <v>0.1844234845841299</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -753,25 +753,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.06102266278260515</v>
+        <v>0.131458135430762</v>
       </c>
       <c r="D9">
-        <v>0.1355598817801109</v>
+        <v>0.08033632722457185</v>
       </c>
       <c r="E9">
-        <v>0.1390493394156636</v>
+        <v>0.1228161569043706</v>
       </c>
       <c r="F9">
-        <v>5.206854702896322</v>
+        <v>2.393812729005703</v>
       </c>
       <c r="G9">
-        <v>6.034513976464154</v>
+        <v>2.51618790786199</v>
       </c>
       <c r="H9">
-        <v>2.943293182081447</v>
+        <v>1.74135868124057</v>
       </c>
       <c r="I9">
-        <v>4.372000710564976</v>
+        <v>2.171631052034144</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3144753410724945</v>
+        <v>0.1988477230563603</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -800,25 +800,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.06703096620471172</v>
+        <v>0.1313736662560032</v>
       </c>
       <c r="D10">
-        <v>0.1663800025035869</v>
+        <v>0.08519417982041944</v>
       </c>
       <c r="E10">
-        <v>0.1665977652243953</v>
+        <v>0.126829877782999</v>
       </c>
       <c r="F10">
-        <v>6.378617921487773</v>
+        <v>2.611229275406885</v>
       </c>
       <c r="G10">
-        <v>7.410780399705402</v>
+        <v>2.776138822976691</v>
       </c>
       <c r="H10">
-        <v>3.583122779026723</v>
+        <v>1.851939957587547</v>
       </c>
       <c r="I10">
-        <v>5.347957517957411</v>
+        <v>2.348650619898365</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.3824908877067088</v>
+        <v>0.2101106321088224</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -847,25 +847,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.07002371755045544</v>
+        <v>0.1313886564266156</v>
       </c>
       <c r="D11">
-        <v>0.181596164950264</v>
+        <v>0.08746820656500631</v>
       </c>
       <c r="E11">
-        <v>0.1800732998202079</v>
+        <v>0.1287381493571331</v>
       </c>
       <c r="F11">
-        <v>6.947981599596432</v>
+        <v>2.711995861467756</v>
       </c>
       <c r="G11">
-        <v>8.079559943801598</v>
+        <v>2.896365912390365</v>
       </c>
       <c r="H11">
-        <v>3.894813817648298</v>
+        <v>1.903549187442707</v>
       </c>
       <c r="I11">
-        <v>5.822691222943234</v>
+        <v>2.430859379207675</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.4157020106417804</v>
+        <v>0.2153845554645812</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -894,25 +894,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.07120229760767671</v>
+        <v>0.1314020319701896</v>
       </c>
       <c r="D12">
-        <v>0.1875773942541912</v>
+        <v>0.08833877651755984</v>
       </c>
       <c r="E12">
-        <v>0.1853459991271649</v>
+        <v>0.1294727822323267</v>
       </c>
       <c r="F12">
-        <v>7.170179492546936</v>
+        <v>2.750428839540319</v>
       </c>
       <c r="G12">
-        <v>8.340576975488034</v>
+        <v>2.942185579604882</v>
       </c>
       <c r="H12">
-        <v>4.016580609532468</v>
+        <v>1.923283938611632</v>
       </c>
       <c r="I12">
-        <v>6.008044251792114</v>
+        <v>2.462237726718996</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.4286894299957709</v>
+        <v>0.2174037231215067</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.07094630502434285</v>
+        <v>0.131398808588358</v>
       </c>
       <c r="D13">
-        <v>0.1862785784637992</v>
+        <v>0.08815086007604123</v>
       </c>
       <c r="E13">
-        <v>0.1842022318602332</v>
+        <v>0.1293140290502208</v>
       </c>
       <c r="F13">
-        <v>7.122006116868363</v>
+        <v>2.742139272274073</v>
       </c>
       <c r="G13">
-        <v>8.283986230998266</v>
+        <v>2.932304359376985</v>
       </c>
       <c r="H13">
-        <v>3.990175219717059</v>
+        <v>1.919025130824707</v>
       </c>
       <c r="I13">
-        <v>5.967855012938799</v>
+        <v>2.455468728007389</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.4258724722832881</v>
+        <v>0.2169678718057213</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -988,25 +988,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.07011971912146464</v>
+        <v>0.1313896024317316</v>
       </c>
       <c r="D14">
-        <v>0.1820835314021423</v>
+        <v>0.08753963830744738</v>
       </c>
       <c r="E14">
-        <v>0.1805034559518006</v>
+        <v>0.1287983463696492</v>
       </c>
       <c r="F14">
-        <v>6.966120649087969</v>
+        <v>2.715152216398224</v>
       </c>
       <c r="G14">
-        <v>8.100867456959008</v>
+        <v>2.90012961745947</v>
       </c>
       <c r="H14">
-        <v>3.904751598947541</v>
+        <v>1.905168918344259</v>
       </c>
       <c r="I14">
-        <v>5.837820692692731</v>
+        <v>2.433435896936345</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.416761686516395</v>
+        <v>0.2155502292711162</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1035,25 +1035,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.06961958185669914</v>
+        <v>0.1313849665999314</v>
       </c>
       <c r="D15">
-        <v>0.1795441243186247</v>
+        <v>0.08716648397526683</v>
       </c>
       <c r="E15">
-        <v>0.178261133049368</v>
+        <v>0.1284840450034181</v>
       </c>
       <c r="F15">
-        <v>6.871541782451828</v>
+        <v>2.698657870953355</v>
       </c>
       <c r="G15">
-        <v>7.989768848611106</v>
+        <v>2.880459975010581</v>
       </c>
       <c r="H15">
-        <v>3.852940149273365</v>
+        <v>1.896706634629652</v>
       </c>
       <c r="I15">
-        <v>5.758937552028158</v>
+        <v>2.419972582426283</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.411237508064346</v>
+        <v>0.2146847662822324</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1082,25 +1082,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.06684124096355504</v>
+        <v>0.1313737629808216</v>
       </c>
       <c r="D16">
-        <v>0.1654133970966143</v>
+        <v>0.08504687654080101</v>
       </c>
       <c r="E16">
-        <v>0.1657388108333855</v>
+        <v>0.1267068397392102</v>
       </c>
       <c r="F16">
-        <v>6.342248522770348</v>
+        <v>2.604682019297115</v>
       </c>
       <c r="G16">
-        <v>7.368062641716449</v>
+        <v>2.768322137877874</v>
       </c>
       <c r="H16">
-        <v>3.563229387079105</v>
+        <v>1.848593757447532</v>
       </c>
       <c r="I16">
-        <v>5.317643748655712</v>
+        <v>2.343312420629019</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.3803728801888724</v>
+        <v>0.2097690306658535</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1129,25 +1129,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.06520835336758068</v>
+        <v>0.1313805833467185</v>
       </c>
       <c r="D17">
-        <v>0.1570806254969312</v>
+        <v>0.08376315395827305</v>
       </c>
       <c r="E17">
-        <v>0.1583200499216026</v>
+        <v>0.1256378024307594</v>
       </c>
       <c r="F17">
-        <v>6.027713704394387</v>
+        <v>2.547512892194987</v>
       </c>
       <c r="G17">
-        <v>6.998631552417805</v>
+        <v>2.700040740622569</v>
       </c>
       <c r="H17">
-        <v>3.391271722490444</v>
+        <v>1.81941501844409</v>
       </c>
       <c r="I17">
-        <v>5.055536505698541</v>
+        <v>2.296718729053538</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.3620734546629762</v>
+        <v>0.2067921978941172</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1176,25 +1176,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.06429301165047718</v>
+        <v>0.1313895328193055</v>
       </c>
       <c r="D18">
-        <v>0.1523969342160285</v>
+        <v>0.0830308168080478</v>
       </c>
       <c r="E18">
-        <v>0.1541393106883753</v>
+        <v>0.1250306673226156</v>
       </c>
       <c r="F18">
-        <v>5.850120827416958</v>
+        <v>2.514805620256652</v>
       </c>
       <c r="G18">
-        <v>6.790046343232291</v>
+        <v>2.66095238537946</v>
       </c>
       <c r="H18">
-        <v>3.294251907474575</v>
+        <v>1.802754805272855</v>
       </c>
       <c r="I18">
-        <v>4.907590926895153</v>
+        <v>2.270077198096715</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.3517556585048993</v>
+        <v>0.2050941298816298</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1223,25 +1223,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.06398697832217692</v>
+        <v>0.1313934257487759</v>
       </c>
       <c r="D19">
-        <v>0.1508286210415264</v>
+        <v>0.0827838884598151</v>
       </c>
       <c r="E19">
-        <v>0.1527377126851945</v>
+        <v>0.1248264274965472</v>
       </c>
       <c r="F19">
-        <v>5.790524917641363</v>
+        <v>2.503761328198323</v>
       </c>
       <c r="G19">
-        <v>6.720050338530825</v>
+        <v>2.647749312344274</v>
       </c>
       <c r="H19">
-        <v>3.261706252701629</v>
+        <v>1.79713489135986</v>
       </c>
       <c r="I19">
-        <v>4.857951479467374</v>
+        <v>2.261083781789097</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.3482956485642177</v>
+        <v>0.2045216068815279</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1270,25 +1270,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.06537965712398375</v>
+        <v>0.1313793369484628</v>
       </c>
       <c r="D20">
-        <v>0.1579560712494015</v>
+        <v>0.08389918317278955</v>
       </c>
       <c r="E20">
-        <v>0.159100635232722</v>
+        <v>0.1257508003500583</v>
       </c>
       <c r="F20">
-        <v>6.060844158548605</v>
+        <v>2.553580491914317</v>
       </c>
       <c r="G20">
-        <v>7.03754389015603</v>
+        <v>2.707290174009074</v>
       </c>
       <c r="H20">
-        <v>3.409376810802428</v>
+        <v>1.822508426784339</v>
       </c>
       <c r="I20">
-        <v>5.083139855111085</v>
+        <v>2.301662320176661</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.3639994366785544</v>
+        <v>0.2071076216460312</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1317,25 +1317,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.07036120418003122</v>
+        <v>0.1313920974025251</v>
       </c>
       <c r="D21">
-        <v>0.1833093242933046</v>
+        <v>0.08771891084226979</v>
       </c>
       <c r="E21">
-        <v>0.1815849490927235</v>
+        <v>0.1289494875663735</v>
       </c>
       <c r="F21">
-        <v>7.011716292170547</v>
+        <v>2.723071452625504</v>
       </c>
       <c r="G21">
-        <v>8.154427978663364</v>
+        <v>2.909572118791061</v>
       </c>
       <c r="H21">
-        <v>3.929733996234518</v>
+        <v>1.909233597299703</v>
       </c>
       <c r="I21">
-        <v>5.875852624601265</v>
+        <v>2.439900704324572</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.4194257976126323</v>
+        <v>0.2159660234536034</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1364,25 +1364,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.07388631121668965</v>
+        <v>0.1314453225538301</v>
       </c>
       <c r="D22">
-        <v>0.2011897847977622</v>
+        <v>0.09027048411026328</v>
       </c>
       <c r="E22">
-        <v>0.1972928140959596</v>
+        <v>0.1311101069874709</v>
       </c>
       <c r="F22">
-        <v>7.67252681330541</v>
+        <v>2.835449054683664</v>
       </c>
       <c r="G22">
-        <v>8.930746378119522</v>
+        <v>3.043482725880892</v>
       </c>
       <c r="H22">
-        <v>4.292121647396925</v>
+        <v>1.96703127723481</v>
       </c>
       <c r="I22">
-        <v>6.427262653467523</v>
+        <v>2.531693937023761</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.4581042145510708</v>
+        <v>0.2218842146925226</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1411,25 +1411,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.07197701838372694</v>
+        <v>0.1314128019886098</v>
       </c>
       <c r="D23">
-        <v>0.1915072339546526</v>
+        <v>0.08890354055664318</v>
       </c>
       <c r="E23">
-        <v>0.1888026380908769</v>
+        <v>0.129950475753617</v>
       </c>
       <c r="F23">
-        <v>7.315680278407143</v>
+        <v>2.775321754751786</v>
       </c>
       <c r="G23">
-        <v>8.511505665005643</v>
+        <v>2.971853034441494</v>
       </c>
       <c r="H23">
-        <v>4.096353749592026</v>
+        <v>1.936080023239867</v>
       </c>
       <c r="I23">
-        <v>6.129443334606208</v>
+        <v>2.482567838426547</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.4372017483078992</v>
+        <v>0.2187136442776136</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1458,25 +1458,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.06530213829681486</v>
+        <v>0.1313798847842733</v>
       </c>
       <c r="D24">
-        <v>0.1575599525301214</v>
+        <v>0.08383766665208725</v>
       </c>
       <c r="E24">
-        <v>0.1587474721536744</v>
+        <v>0.1256996907394985</v>
       </c>
       <c r="F24">
-        <v>6.045855894551721</v>
+        <v>2.550836832179698</v>
       </c>
       <c r="G24">
-        <v>7.019939884746009</v>
+        <v>2.704012183990471</v>
       </c>
       <c r="H24">
-        <v>3.401185821375066</v>
+        <v>1.821109538856263</v>
       </c>
       <c r="I24">
-        <v>5.070651918750201</v>
+        <v>2.299426868926872</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.3631280746276815</v>
+        <v>0.2069649770088091</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1505,25 +1505,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.0589969576356566</v>
+        <v>0.1315364887500579</v>
       </c>
       <c r="D25">
-        <v>0.1250190577707002</v>
+        <v>0.0786028315648224</v>
       </c>
       <c r="E25">
-        <v>0.1295569656715649</v>
+        <v>0.1214100718260092</v>
       </c>
       <c r="F25">
-        <v>4.800164514386609</v>
+        <v>2.315352257043543</v>
       </c>
       <c r="G25">
-        <v>5.556812012974433</v>
+        <v>2.422153262617371</v>
       </c>
       <c r="H25">
-        <v>2.721813561658678</v>
+        <v>1.701768528437015</v>
       </c>
       <c r="I25">
-        <v>4.033634984873459</v>
+        <v>2.107894272092096</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2909855187689487</v>
+        <v>0.1948305746391696</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_207/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_207/res_line/pl_mw.xlsx
@@ -424,25 +424,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1318163244422621</v>
+        <v>0.05490777311227646</v>
       </c>
       <c r="D2">
-        <v>0.07493699281137367</v>
+        <v>0.1033205587340404</v>
       </c>
       <c r="E2">
-        <v>0.1184991365950125</v>
+        <v>0.1099223801602598</v>
       </c>
       <c r="F2">
-        <v>2.147396506875879</v>
+        <v>3.952778987996169</v>
       </c>
       <c r="G2">
-        <v>2.220330774798867</v>
+        <v>4.56124382249061</v>
       </c>
       <c r="H2">
-        <v>1.617759182396128</v>
+        <v>2.261519837534763</v>
       </c>
       <c r="I2">
-        <v>1.971795632941053</v>
+        <v>3.329309295653189</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1863415131912944</v>
+        <v>0.2422674968963179</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -471,25 +471,25 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1321083045426334</v>
+        <v>0.05240258082278615</v>
       </c>
       <c r="D3">
-        <v>0.07256598175472107</v>
+        <v>0.0895847550159985</v>
       </c>
       <c r="E3">
-        <v>0.1166775667029931</v>
+        <v>0.09744191520185908</v>
       </c>
       <c r="F3">
-        <v>2.036816699322713</v>
+        <v>3.408692100088956</v>
       </c>
       <c r="G3">
-        <v>2.086944517262111</v>
+        <v>3.921724616311366</v>
       </c>
       <c r="H3">
-        <v>1.563157948876182</v>
+        <v>1.966992608946782</v>
       </c>
       <c r="I3">
-        <v>1.882514759531929</v>
+        <v>2.877654224825875</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1808578132487639</v>
+        <v>0.2111742910483372</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -518,25 +518,25 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1323379769750872</v>
+        <v>0.0509749997012463</v>
       </c>
       <c r="D4">
-        <v>0.07116475536849265</v>
+        <v>0.08151668983969529</v>
       </c>
       <c r="E4">
-        <v>0.1156327084658031</v>
+        <v>0.09009990364465281</v>
       </c>
       <c r="F4">
-        <v>1.970476765595834</v>
+        <v>3.086050247460946</v>
       </c>
       <c r="G4">
-        <v>2.006664097394179</v>
+        <v>3.542320519219516</v>
       </c>
       <c r="H4">
-        <v>1.530759656186433</v>
+        <v>1.792803458186597</v>
       </c>
       <c r="I4">
-        <v>1.829116384459297</v>
+        <v>2.610077947351002</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1776210568560472</v>
+        <v>0.1928190221222863</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -565,25 +565,25 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.132444234507247</v>
+        <v>0.05041843973230442</v>
       </c>
       <c r="D5">
-        <v>0.070607290533232</v>
+        <v>0.07830675826123468</v>
       </c>
       <c r="E5">
-        <v>0.1152252965986591</v>
+        <v>0.08717774526256861</v>
       </c>
       <c r="F5">
-        <v>1.943828266499054</v>
+        <v>2.957006081444234</v>
       </c>
       <c r="G5">
-        <v>1.974349319995611</v>
+        <v>3.390526899446826</v>
       </c>
       <c r="H5">
-        <v>1.517837414266324</v>
+        <v>1.723246859370875</v>
       </c>
       <c r="I5">
-        <v>1.80770843727403</v>
+        <v>2.503117875908018</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1763344579139741</v>
+        <v>0.1854972620184299</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -612,25 +612,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.132462643152337</v>
+        <v>0.05032747453019937</v>
       </c>
       <c r="D6">
-        <v>0.0705155369100865</v>
+        <v>0.07777807996011177</v>
       </c>
       <c r="E6">
-        <v>0.1151587523329667</v>
+        <v>0.08669644403985899</v>
       </c>
       <c r="F6">
-        <v>1.939426421979931</v>
+        <v>2.935713723041829</v>
       </c>
       <c r="G6">
-        <v>1.969007440302192</v>
+        <v>3.365477940723338</v>
       </c>
       <c r="H6">
-        <v>1.515708527668664</v>
+        <v>1.711776651386174</v>
       </c>
       <c r="I6">
-        <v>1.804174803194343</v>
+        <v>2.485472932959723</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1761227662898364</v>
+        <v>0.1842903221246672</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1323393587342423</v>
+        <v>0.05096739496258351</v>
       </c>
       <c r="D7">
-        <v>0.07115718258769022</v>
+        <v>0.08147310147511178</v>
       </c>
       <c r="E7">
-        <v>0.1156271397299307</v>
+        <v>0.09006022532199509</v>
       </c>
       <c r="F7">
-        <v>1.970115821120544</v>
+        <v>3.084300591456127</v>
       </c>
       <c r="G7">
-        <v>2.006226678036938</v>
+        <v>3.540262608120628</v>
       </c>
       <c r="H7">
-        <v>1.530584251319368</v>
+        <v>1.791859917126828</v>
       </c>
       <c r="I7">
-        <v>1.828826249198599</v>
+        <v>2.608627480389586</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1776035745793649</v>
+        <v>0.1927196708992156</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.131906534216931</v>
+        <v>0.05401932974754686</v>
       </c>
       <c r="D8">
-        <v>0.07410802949189588</v>
+        <v>0.09849937099603068</v>
       </c>
       <c r="E8">
-        <v>0.1178557056106584</v>
+        <v>0.1055453979119427</v>
       </c>
       <c r="F8">
-        <v>2.108941954639846</v>
+        <v>3.762521690147224</v>
       </c>
       <c r="G8">
-        <v>2.173998797861998</v>
+        <v>4.337649442862102</v>
       </c>
       <c r="H8">
-        <v>1.598696853389157</v>
+        <v>2.158427329991525</v>
       </c>
       <c r="I8">
-        <v>1.940713794850737</v>
+        <v>3.171317303303638</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1844234845841299</v>
+        <v>0.2313763612196453</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -753,25 +753,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.131458135430762</v>
+        <v>0.061022662782932</v>
       </c>
       <c r="D9">
-        <v>0.08033632722457185</v>
+        <v>0.1355598817799546</v>
       </c>
       <c r="E9">
-        <v>0.1228161569043706</v>
+        <v>0.1390493394156671</v>
       </c>
       <c r="F9">
-        <v>2.393812729005703</v>
+        <v>5.206854702896351</v>
       </c>
       <c r="G9">
-        <v>2.51618790786199</v>
+        <v>6.034513976464041</v>
       </c>
       <c r="H9">
-        <v>1.74135868124057</v>
+        <v>2.943293182081391</v>
       </c>
       <c r="I9">
-        <v>2.171631052034144</v>
+        <v>4.372000710564976</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1988477230563603</v>
+        <v>0.3144753410724803</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -800,25 +800,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1313736662560032</v>
+        <v>0.06703096620434934</v>
       </c>
       <c r="D10">
-        <v>0.08519417982041944</v>
+        <v>0.1663800025039848</v>
       </c>
       <c r="E10">
-        <v>0.126829877782999</v>
+        <v>0.1665977652244166</v>
       </c>
       <c r="F10">
-        <v>2.611229275406885</v>
+        <v>6.378617921487802</v>
       </c>
       <c r="G10">
-        <v>2.776138822976691</v>
+        <v>7.410780399705402</v>
       </c>
       <c r="H10">
-        <v>1.851939957587547</v>
+        <v>3.58312277902678</v>
       </c>
       <c r="I10">
-        <v>2.348650619898365</v>
+        <v>5.347957517957411</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2101106321088224</v>
+        <v>0.3824908877066946</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -847,25 +847,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1313886564266156</v>
+        <v>0.0700237175506615</v>
       </c>
       <c r="D11">
-        <v>0.08746820656500631</v>
+        <v>0.1815961649502498</v>
       </c>
       <c r="E11">
-        <v>0.1287381493571331</v>
+        <v>0.1800732998202079</v>
       </c>
       <c r="F11">
-        <v>2.711995861467756</v>
+        <v>6.947981599596403</v>
       </c>
       <c r="G11">
-        <v>2.896365912390365</v>
+        <v>8.079559943801598</v>
       </c>
       <c r="H11">
-        <v>1.903549187442707</v>
+        <v>3.894813817648298</v>
       </c>
       <c r="I11">
-        <v>2.430859379207675</v>
+        <v>5.822691222943234</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2153845554645812</v>
+        <v>0.4157020106416951</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -894,25 +894,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1314020319701896</v>
+        <v>0.07120229760769092</v>
       </c>
       <c r="D12">
-        <v>0.08833877651755984</v>
+        <v>0.1875773942543901</v>
       </c>
       <c r="E12">
-        <v>0.1294727822323267</v>
+        <v>0.1853459991271578</v>
       </c>
       <c r="F12">
-        <v>2.750428839540319</v>
+        <v>7.170179492547021</v>
       </c>
       <c r="G12">
-        <v>2.942185579604882</v>
+        <v>8.340576975488091</v>
       </c>
       <c r="H12">
-        <v>1.923283938611632</v>
+        <v>4.016580609532525</v>
       </c>
       <c r="I12">
-        <v>2.462237726718996</v>
+        <v>6.008044251792143</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2174037231215067</v>
+        <v>0.4286894299957282</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.131398808588358</v>
+        <v>0.07094630502433574</v>
       </c>
       <c r="D13">
-        <v>0.08815086007604123</v>
+        <v>0.186278578463785</v>
       </c>
       <c r="E13">
-        <v>0.1293140290502208</v>
+        <v>0.1842022318602616</v>
       </c>
       <c r="F13">
-        <v>2.742139272274073</v>
+        <v>7.122006116868363</v>
       </c>
       <c r="G13">
-        <v>2.932304359376985</v>
+        <v>8.283986230998323</v>
       </c>
       <c r="H13">
-        <v>1.919025130824707</v>
+        <v>3.990175219717116</v>
       </c>
       <c r="I13">
-        <v>2.455468728007389</v>
+        <v>5.96785501293877</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2169678718057213</v>
+        <v>0.4258724722830749</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -988,25 +988,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1313896024317316</v>
+        <v>0.07011971912146464</v>
       </c>
       <c r="D14">
-        <v>0.08753963830744738</v>
+        <v>0.1820835314023128</v>
       </c>
       <c r="E14">
-        <v>0.1287983463696492</v>
+        <v>0.1805034559517793</v>
       </c>
       <c r="F14">
-        <v>2.715152216398224</v>
+        <v>6.966120649087998</v>
       </c>
       <c r="G14">
-        <v>2.90012961745947</v>
+        <v>8.100867456958952</v>
       </c>
       <c r="H14">
-        <v>1.905168918344259</v>
+        <v>3.904751598947541</v>
       </c>
       <c r="I14">
-        <v>2.433435896936345</v>
+        <v>5.837820692692731</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2155502292711162</v>
+        <v>0.4167616865162955</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1035,25 +1035,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1313849665999314</v>
+        <v>0.06961958185726758</v>
       </c>
       <c r="D15">
-        <v>0.08716648397526683</v>
+        <v>0.1795441243186389</v>
       </c>
       <c r="E15">
-        <v>0.1284840450034181</v>
+        <v>0.1782611330493609</v>
       </c>
       <c r="F15">
-        <v>2.698657870953355</v>
+        <v>6.871541782451828</v>
       </c>
       <c r="G15">
-        <v>2.880459975010581</v>
+        <v>7.989768848610936</v>
       </c>
       <c r="H15">
-        <v>1.896706634629652</v>
+        <v>3.852940149273422</v>
       </c>
       <c r="I15">
-        <v>2.419972582426283</v>
+        <v>5.758937552028158</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2146847662822324</v>
+        <v>0.4112375080644455</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1082,25 +1082,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1313737629808216</v>
+        <v>0.06684124096319266</v>
       </c>
       <c r="D16">
-        <v>0.08504687654080101</v>
+        <v>0.1654133970969696</v>
       </c>
       <c r="E16">
-        <v>0.1267068397392102</v>
+        <v>0.1657388108333322</v>
       </c>
       <c r="F16">
-        <v>2.604682019297115</v>
+        <v>6.342248522770348</v>
       </c>
       <c r="G16">
-        <v>2.768322137877874</v>
+        <v>7.368062641716506</v>
       </c>
       <c r="H16">
-        <v>1.848593757447532</v>
+        <v>3.563229387079048</v>
       </c>
       <c r="I16">
-        <v>2.343312420629019</v>
+        <v>5.317643748655712</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2097690306658535</v>
+        <v>0.380372880188844</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1129,25 +1129,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1313805833467185</v>
+        <v>0.06520835336737463</v>
       </c>
       <c r="D17">
-        <v>0.08376315395827305</v>
+        <v>0.1570806254967323</v>
       </c>
       <c r="E17">
-        <v>0.1256378024307594</v>
+        <v>0.1583200499216026</v>
       </c>
       <c r="F17">
-        <v>2.547512892194987</v>
+        <v>6.02771370439433</v>
       </c>
       <c r="G17">
-        <v>2.700040740622569</v>
+        <v>6.998631552417748</v>
       </c>
       <c r="H17">
-        <v>1.81941501844409</v>
+        <v>3.391271722490444</v>
       </c>
       <c r="I17">
-        <v>2.296718729053538</v>
+        <v>5.055536505698541</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2067921978941172</v>
+        <v>0.3620734546627915</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1176,25 +1176,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1313895328193055</v>
+        <v>0.06429301165047008</v>
       </c>
       <c r="D18">
-        <v>0.0830308168080478</v>
+        <v>0.1523969342164264</v>
       </c>
       <c r="E18">
-        <v>0.1250306673226156</v>
+        <v>0.1541393106883575</v>
       </c>
       <c r="F18">
-        <v>2.514805620256652</v>
+        <v>5.850120827416902</v>
       </c>
       <c r="G18">
-        <v>2.66095238537946</v>
+        <v>6.790046343232348</v>
       </c>
       <c r="H18">
-        <v>1.802754805272855</v>
+        <v>3.294251907474575</v>
       </c>
       <c r="I18">
-        <v>2.270077198096715</v>
+        <v>4.907590926895097</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2050941298816298</v>
+        <v>0.3517556585046435</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1223,25 +1223,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1313934257487759</v>
+        <v>0.06398697832215561</v>
       </c>
       <c r="D19">
-        <v>0.0827838884598151</v>
+        <v>0.1508286210417111</v>
       </c>
       <c r="E19">
-        <v>0.1248264274965472</v>
+        <v>0.1527377126851839</v>
       </c>
       <c r="F19">
-        <v>2.503761328198323</v>
+        <v>5.79052491764142</v>
       </c>
       <c r="G19">
-        <v>2.647749312344274</v>
+        <v>6.720050338530825</v>
       </c>
       <c r="H19">
-        <v>1.79713489135986</v>
+        <v>3.261706252701572</v>
       </c>
       <c r="I19">
-        <v>2.261083781789097</v>
+        <v>4.857951479467374</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2045216068815279</v>
+        <v>0.3482956485641893</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1270,25 +1270,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1313793369484628</v>
+        <v>0.06537965712396954</v>
       </c>
       <c r="D20">
-        <v>0.08389918317278955</v>
+        <v>0.1579560712496004</v>
       </c>
       <c r="E20">
-        <v>0.1257508003500583</v>
+        <v>0.1591006352327433</v>
       </c>
       <c r="F20">
-        <v>2.553580491914317</v>
+        <v>6.060844158548605</v>
       </c>
       <c r="G20">
-        <v>2.707290174009074</v>
+        <v>7.037543890156201</v>
       </c>
       <c r="H20">
-        <v>1.822508426784339</v>
+        <v>3.409376810802485</v>
       </c>
       <c r="I20">
-        <v>2.301662320176661</v>
+        <v>5.083139855111057</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2071076216460312</v>
+        <v>0.3639994366787391</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1317,25 +1317,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1313920974025251</v>
+        <v>0.07036120417930647</v>
       </c>
       <c r="D21">
-        <v>0.08771891084226979</v>
+        <v>0.1833093242930914</v>
       </c>
       <c r="E21">
-        <v>0.1289494875663735</v>
+        <v>0.181584949092759</v>
       </c>
       <c r="F21">
-        <v>2.723071452625504</v>
+        <v>7.011716292170547</v>
       </c>
       <c r="G21">
-        <v>2.909572118791061</v>
+        <v>8.154427978663364</v>
       </c>
       <c r="H21">
-        <v>1.909233597299703</v>
+        <v>3.929733996234461</v>
       </c>
       <c r="I21">
-        <v>2.439900704324572</v>
+        <v>5.875852624601293</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2159660234536034</v>
+        <v>0.4194257976128739</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1364,25 +1364,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1314453225538301</v>
+        <v>0.07388631121764888</v>
       </c>
       <c r="D22">
-        <v>0.09027048411026328</v>
+        <v>0.2011897847979185</v>
       </c>
       <c r="E22">
-        <v>0.1311101069874709</v>
+        <v>0.1972928140959667</v>
       </c>
       <c r="F22">
-        <v>2.835449054683664</v>
+        <v>7.672526813305524</v>
       </c>
       <c r="G22">
-        <v>3.043482725880892</v>
+        <v>8.930746378119636</v>
       </c>
       <c r="H22">
-        <v>1.96703127723481</v>
+        <v>4.292121647396925</v>
       </c>
       <c r="I22">
-        <v>2.531693937023761</v>
+        <v>6.427262653467579</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2218842146925226</v>
+        <v>0.4581042145510139</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1411,25 +1411,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.1314128019886098</v>
+        <v>0.07197701838408932</v>
       </c>
       <c r="D23">
-        <v>0.08890354055664318</v>
+        <v>0.1915072339546526</v>
       </c>
       <c r="E23">
-        <v>0.129950475753617</v>
+        <v>0.1888026380908698</v>
       </c>
       <c r="F23">
-        <v>2.775321754751786</v>
+        <v>7.315680278407171</v>
       </c>
       <c r="G23">
-        <v>2.971853034441494</v>
+        <v>8.51150566500587</v>
       </c>
       <c r="H23">
-        <v>1.936080023239867</v>
+        <v>4.096353749592026</v>
       </c>
       <c r="I23">
-        <v>2.482567838426547</v>
+        <v>6.129443334606208</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2187136442776136</v>
+        <v>0.4372017483078707</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1458,25 +1458,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1313798847842733</v>
+        <v>0.06530213829702092</v>
       </c>
       <c r="D24">
-        <v>0.08383766665208725</v>
+        <v>0.1575599525301783</v>
       </c>
       <c r="E24">
-        <v>0.1256996907394985</v>
+        <v>0.1587474721536744</v>
       </c>
       <c r="F24">
-        <v>2.550836832179698</v>
+        <v>6.045855894551693</v>
       </c>
       <c r="G24">
-        <v>2.704012183990471</v>
+        <v>7.019939884746123</v>
       </c>
       <c r="H24">
-        <v>1.821109538856263</v>
+        <v>3.401185821375066</v>
       </c>
       <c r="I24">
-        <v>2.299426868926872</v>
+        <v>5.070651918750258</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2069649770088091</v>
+        <v>0.3631280746279515</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1505,25 +1505,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1315364887500579</v>
+        <v>0.05899695763522317</v>
       </c>
       <c r="D25">
-        <v>0.0786028315648224</v>
+        <v>0.1250190577709844</v>
       </c>
       <c r="E25">
-        <v>0.1214100718260092</v>
+        <v>0.129556965671533</v>
       </c>
       <c r="F25">
-        <v>2.315352257043543</v>
+        <v>4.800164514386637</v>
       </c>
       <c r="G25">
-        <v>2.422153262617371</v>
+        <v>5.55681201297449</v>
       </c>
       <c r="H25">
-        <v>1.701768528437015</v>
+        <v>2.721813561658678</v>
       </c>
       <c r="I25">
-        <v>2.107894272092096</v>
+        <v>4.03363498487343</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1948305746391696</v>
+        <v>0.2909855187689914</v>
       </c>
       <c r="M25">
         <v>0</v>
